--- a/dist/document/dest/2020/10/doctors/bhl.xlsx
+++ b/dist/document/dest/2020/10/doctors/bhl.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>60</v>
       </c>
-      <c r="C2" s="1">
-        <v>448800</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="1">
-        <v>462000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>60</v>
       </c>
-      <c r="C4" s="1">
-        <v>504900</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>4100</v>
       </c>
-      <c r="C5" s="1">
-        <v>22160500</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="1">
-        <v>1050000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -460,7 +445,7 @@
         <v>4251</v>
       </c>
       <c r="C7" s="1">
-        <v>24626200</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/bhl.xlsx
+++ b/dist/document/dest/2020/10/doctors/bhl.xlsx
@@ -399,26 +399,35 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Bilomag (Ginkgo biloba 80mg)</v>
+        <v>Canvey (Metronidazole, chloramphenicol, dexamethasone acetate, nystatin)</v>
       </c>
       <c r="B2" s="1">
-        <v>60</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>286000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Crysan Silk (Lactoserum, acid lactic, sodium lactate)</v>
       </c>
       <c r="B3" s="1">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>139100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>60</v>
+        <v>1900</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10269500</v>
       </c>
     </row>
     <row r="5">
@@ -426,15 +435,21 @@
         <v>Seovigo (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>4100</v>
+        <v>500</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2702500</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v xml:space="preserve">VỚ JOBST RELIEF ĐÙI (M) </v>
+        <v>Seovigo (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>500</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2702500</v>
       </c>
     </row>
     <row r="7">
@@ -442,10 +457,10 @@
         <v>Tổng cộng</v>
       </c>
       <c r="B7" s="1">
-        <v>4251</v>
+        <v>2911</v>
       </c>
       <c r="C7" s="1">
-        <v>NaN</v>
+        <v>16099600</v>
       </c>
     </row>
   </sheetData>
